--- a/annual_data/2004.xlsx
+++ b/annual_data/2004.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央社会和法制委员会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央社会和法制委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 11, 'job_name': '中央政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2012-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2012-07-01 00:00:00'), 'location': '北京市', 'type': '党委', 'rank': 10, 'job_name': '北京市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 9, 'job_name': '北京市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 8, 'job_name': '上海市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-07-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '上海市', 'job_name': '上海市国有资产监督管理委员会书记'}</t>
+          <t>{'begin_time': Timestamp('2003-07-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 8, 'job_name': '上海市国有资产监督管理委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 10, 'job_name': '天津市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央发展改革/计划委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央发展改革/计划委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 9, 'job_name': '天津市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 8, 'job_name': '天津市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '天津市', 'job_name': '天津市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 8, 'job_name': '天津市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国兵器工业总公司副总经理'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国兵器工业总公司副总经理'}</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央经济委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央经济委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央民族和宗教委员会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央民族和宗教委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '河北省', 'type': '政府/国务院', 'rank': 9, 'job_name': '河北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '河北省', 'type': '政府/国务院', 'rank': 8, 'job_name': '河北省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 8, 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 8, 'job_name': '西藏自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '河南省', 'job_name': '河南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '河南省', 'type': '党委', 'rank': 8, 'job_name': '河南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司总经理'}</t>
+          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国航天科技集团公司总经理'}</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'job_name': '中央发展改革/计划委员会高技术产业发展司副司长'}</t>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 6, 'job_name': '中央发展改革/计划委员会高技术产业发展司副司长'}</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-05-01 00:00:00'), 'location': '中央', 'job_name': '中央国务院扶贫开发领导小组副组长'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国务院扶贫开发领导小组副组长'}</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-10-01 00:00:00'), 'end_time': Timestamp('2007-04-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2003-10-01 00:00:00'), 'end_time': Timestamp('2007-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国土资源部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 8, 'job_name': '湖南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 8, 'job_name': '湖南省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央南水北调工程建设委员会办公室副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央南水北调工程建设委员会办公室副主任'}</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'job_name': '江西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'type': '党委', 'rank': 8, 'job_name': '江西省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'job_name': '中央华能集团公司总经理'}</t>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央华能集团公司总经理'}</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'job_name': '中央华能集团公司董事长'}</t>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央华能集团公司董事长'}</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2008-02-01 00:00:00'), 'location': '浙江省丽水市', 'job_name': '浙江省丽水市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2008-02-01 00:00:00'), 'location': '浙江省丽水市', 'type': '党委', 'rank': 7, 'job_name': '浙江省丽水市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省经济贸易委员会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 7, 'job_name': '湖南省经济贸易委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校在职研究生班政治学专业学员'}</t>
+          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中央党校在职研究生班政治学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '内蒙古自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '内蒙古自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 8, 'job_name': '内蒙古自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市中国社会科学院社会学博士生'}</t>
+          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 7, 'job_name': '北京市中国社会科学院社会学博士生'}</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2008-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中央宣传思想工作领导小组组长'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2008-09-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央中央宣传思想工作领导小组组长'}</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-02-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-02-01 00:00:00'), 'location': '辽宁省', 'type': '人大', 'rank': 9, 'job_name': '辽宁省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 9, 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '辽宁省沈阳市', 'job_name': '辽宁省沈阳市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '辽宁省沈阳市', 'type': '政府/国务院', 'rank': 8, 'job_name': '辽宁省沈阳市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术委员会纪检组组长'}</t>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央科学技术委员会纪检组组长'}</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-02 00:00:00'), 'end_time': Timestamp('2014-04-02 00:00:00'), 'location': '中央', 'job_name': '中央国家电力公司副部长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-02 00:00:00'), 'end_time': Timestamp('2014-04-02 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 9, 'job_name': '中央国家电力公司副部长'}</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 9, 'job_name': '吉林省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学人文社会科学学院法学专业博士生'}</t>
+          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 8, 'job_name': '北京市清华大学人文社会科学学院法学专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'job_name': '中央政策研究室副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央政策研究室副主任'}</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '浙江省宁波市', 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '浙江省宁波市', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市科学技术协会副主席'}</t>
+          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '陕西省西安市', 'type': '行业协会_人民团体', 'rank': 7, 'job_name': '陕西省西安市科学技术协会副主席'}</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市经济技术开发区管委会主任'}</t>
+          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '陕西省西安市', 'type': '党委', 'rank': 7, 'job_name': '陕西省西安市经济技术开发区管委会主任'}</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协经济委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协经济委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 9, 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '黑龙江省', 'type': '人大', 'rank': 9, 'job_name': '黑龙江省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 8, 'job_name': '黑龙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 8, 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 8, 'job_name': '北京市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副总理'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委（病逝）'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委（病逝）'}</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2010-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国工程院院长'}</t>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2010-06-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中国工程院院长'}</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '中央', 'job_name': '中央中国工业经济联合会会长'}</t>
+          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 10, 'job_name': '中央中国工业经济联合会会长'}</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 10, 'job_name': '上海市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员（停职）'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员（停职）'}</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2012-12-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2012-12-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 9, 'job_name': '上海市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 8, 'job_name': '上海市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市临港新城管委会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 8, 'job_name': '上海市临港新城管委会主任'}</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市洋山保税港区管委会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 8, 'job_name': '上海市洋山保税港区管委会主任'}</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-07-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省纪律检查委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-07-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 7, 'job_name': '浙江省纪律检查委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省监察部/厅/局厅长'}</t>
+          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省监察部/厅/局厅长'}</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-12-01 00:00:00'), 'location': '中央', 'job_name': '中央海关副署长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央海关副署长'}</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央妇女联合会主席'}</t>
+          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 10, 'job_name': '中央妇女联合会主席'}</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2014-05-07 00:00:00'), 'location': '中央', 'job_name': '中央人力资源和社会保障部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2014-05-07 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人力资源和社会保障部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '江苏省', 'type': '政府/国务院', 'rank': 9, 'job_name': '江苏省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '江苏省南京市', 'job_name': '江苏省南京市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '江苏省南京市', 'type': '党委', 'rank': 0, 'job_name': '江苏省南京市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2010-12-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术部副部长'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2010-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央科学技术部副部长'}</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2010-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校副校长'}</t>
+          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2010-09-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 8, 'job_name': '中央中央党校副校长'}</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '重庆市万州区', 'job_name': '重庆市万州区政府/国务院（综合）区长'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '重庆市万州区', 'type': '政府/国务院', 'rank': 7, 'job_name': '重庆市万州区政府/国务院（综合）区长'}</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央人事部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人事部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央外国专家局局长'}</t>
+          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央外国专家局局长'}</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'job_name': '中央国家电力监管委员会主席'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家电力监管委员会主席'}</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-12-02 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省浙江省委党校院长'}</t>
+          <t>{'begin_time': Timestamp('1998-12-02 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'type': '学校', 'rank': 8, 'job_name': '浙江省浙江省委党校院长'}</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 8, 'job_name': '浙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 9, 'job_name': '浙江省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 8, 'job_name': '浙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '安徽省合肥市', 'job_name': '安徽省合肥市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '安徽省合肥市', 'type': '党委', 'rank': 0, 'job_name': '安徽省合肥市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司五院院长'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司五院院长'}</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副总理'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '江苏省', 'type': '政协', 'rank': 9, 'job_name': '江苏省政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 8, 'job_name': '安徽省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '安徽省', 'type': '政府/国务院', 'rank': 9, 'job_name': '安徽省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '福建省', 'job_name': '福建省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 8, 'job_name': '福建省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 8, 'job_name': '吉林省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2007-04-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2007-04-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 8, 'job_name': '吉林省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-05-01 00:00:00'), 'end_time': Timestamp('2011-03-01 00:00:00'), 'location': '中央', 'job_name': '中央水利部/厅/局黄河水利委员会主任、党组书记（副部级）'}</t>
+          <t>{'begin_time': Timestamp('2001-05-01 00:00:00'), 'end_time': Timestamp('2011-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央水利部/厅/局黄河水利委员会主任、党组书记（副部级）'}</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央总工会主席'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 10, 'job_name': '中央总工会主席'}</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '福建省', 'job_name': '福建省政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '福建省', 'type': '政协', 'rank': 9, 'job_name': '福建省政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部部长'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 9, 'job_name': '浙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '福建省', 'job_name': '福建省机构编制委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 8, 'job_name': '福建省机构编制委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国石油天然气总公司副总经理、党组成员'}</t>
+          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司副总经理、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'job_name': '中央中国石油天然气总公司中国石油天然气股份有限公司董事、高级副总裁'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司中国石油天然气股份有限公司董事、高级副总裁'}</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '福建省厦门市', 'job_name': '福建省厦门市党委常委会/政治局历任数职'}</t>
+          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '福建省厦门市', 'type': '党委', 'rank': 6, 'job_name': '福建省厦门市党委常委会/政治局历任数职'}</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会书记'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央纪律检查委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'job_name': '江西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'type': '政府/国务院', 'rank': 9, 'job_name': '江西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'job_name': '江西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'type': '党委', 'rank': 0, 'job_name': '江西省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国土资源部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-03-01 00:00:00'), 'location': '浙江省温州市', 'job_name': '浙江省温州市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-03-01 00:00:00'), 'location': '浙江省温州市', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省温州市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省西安交通大学应用经济专业博士生'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '陕西省', 'type': '学校', 'rank': 7, 'job_name': '陕西省西安交通大学应用经济专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '山东省', 'type': '党委', 'rank': 0, 'job_name': '山东省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '山东省', 'job_name': '山东省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 0, 'job_name': '山东省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '山东省', 'type': '党委', 'rank': 0, 'job_name': '山东省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '中央', 'job_name': '中央中国人民银行副行长'}</t>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央中国人民银行副行长'}</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '中央', 'job_name': '中央外汇管理分局局长、党组书记'}</t>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央外汇管理分局局长、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '河南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '河南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国务院发展研究中心副主任'}</t>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国务院发展研究中心副主任'}</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '湖南省湘潭市', 'job_name': '湖南省湘潭市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '湖南省湘潭市', 'type': '党委', 'rank': 7, 'job_name': '湖南省湘潭市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央财政经济委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央财政经济委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '中央', 'job_name': '中央教育科学文化卫生委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央教育科学文化卫生委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '湖北省', 'type': '政府/国务院', 'rank': 9, 'job_name': '湖北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '广东省深圳市', 'job_name': '广东省深圳市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '广东省深圳市', 'type': '政府/国务院', 'rank': 0, 'job_name': '广东省深圳市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人口资源环境委员会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央人口资源环境委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 9, 'job_name': '湖南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 9, 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区内蒙古军区政委'}</t>
+          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '内蒙古自治区', 'type': '军队', 'rank': 9, 'job_name': '内蒙古自治区内蒙古军区政委'}</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区人大常委会主任、党组书记'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '内蒙古自治区', 'type': '人大', 'rank': 9, 'job_name': '内蒙古自治区人大常委会主任、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术委员会主任、书记'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央科学技术委员会主任、书记'}</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '湖南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'job_name': '中央共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 9, 'job_name': '中央共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 0, 'job_name': '甘肃省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司党组成员'}</t>
+          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司党组成员'}</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司副总经理'}</t>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司副总经理'}</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2009-04-01 00:00:00'), 'location': '中央', 'job_name': '中央华侨委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2009-04-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央华侨委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2011-11-01 00:00:00'), 'location': '广东省', 'job_name': '广东省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2011-11-01 00:00:00'), 'location': '广东省', 'type': '政府/国务院', 'rank': 9, 'job_name': '广东省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '广东省', 'job_name': '广东省宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 8, 'job_name': '广东省宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'job_name': '中央中国航天科技集团公司副总经理、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司副总经理、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2013-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2013-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）秘书长、办公厅主任'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '广西壮族自治区政府/国务院（综合）秘书长、办公厅主任'}</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央外事委员会主任委员'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央外事委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '海南省', 'job_name': '海南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '海南省', 'type': '党委', 'rank': 9, 'job_name': '海南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '海南省', 'job_name': '海南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '海南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '海南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2007-02-01 00:00:00'), 'location': '海南省', 'job_name': '海南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2007-02-01 00:00:00'), 'location': '海南省', 'type': '党委', 'rank': 0, 'job_name': '海南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校函授学院省部级干部在职研究生班政治学专业学员'}</t>
+          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 0, 'job_name': '中央中央党校函授学院省部级干部在职研究生班政治学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '江苏省', 'type': '政府/国务院', 'rank': 0, 'job_name': '江苏省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '福建省龙岩市', 'job_name': '福建省龙岩市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '福建省龙岩市', 'type': '政府/国务院', 'rank': 7, 'job_name': '福建省龙岩市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校科学社会主义专业学员'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 7, 'job_name': '中央中央党校科学社会主义专业学员'}</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-11-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海新华医院上海市儿科医学研究所研究员、教授'}</t>
+          <t>{'begin_time': Timestamp('1996-11-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'type': '其他', 'rank': 4, 'job_name': '上海市上海新华医院上海市儿科医学研究所研究员、教授'}</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学医学院（上海第二医科大学）博士生导师'}</t>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 4, 'job_name': '上海市上海交通大学医学院（上海第二医科大学）博士生导师'}</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学医学院（上海第二医科大学）校长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 7, 'job_name': '上海市上海交通大学医学院（上海第二医科大学）校长'}</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海交通大学医学院（上海第二医科大学）主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 7, 'job_name': '上海市上海交通大学医学院（上海第二医科大学）主任'}</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '重庆市', 'type': '政府/国务院', 'rank': 9, 'job_name': '重庆市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('2002-05-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '重庆市', 'type': '政府/国务院', 'rank': 8, 'job_name': '重庆市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）党组副书记'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2009-12-01 00:00:00'), 'location': '重庆市', 'type': '政府/国务院', 'rank': 8, 'job_name': '重庆市政府/国务院（综合）党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-07-01 00:00:00'), 'end_time': Timestamp('2011-02-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市重庆市行政学院院长'}</t>
+          <t>{'begin_time': Timestamp('2003-07-01 00:00:00'), 'end_time': Timestamp('2011-02-01 00:00:00'), 'location': '重庆市', 'type': '学校', 'rank': 8, 'job_name': '重庆市重庆市行政学院院长'}</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市东湖新技术开发区管委会主任、工委副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '湖北省武汉市', 'type': '政府/国务院', 'rank': 7, 'job_name': '湖北省武汉市东湖新技术开发区管委会主任、工委副书记'}</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会委员'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协提案委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协提案委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 9, 'job_name': '四川省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-03-01 00:00:00'), 'end_time': Timestamp('2013-04-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2002-03-01 00:00:00'), 'end_time': Timestamp('2013-04-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 0, 'job_name': '四川省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-04-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2002-04-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 0, 'job_name': '四川省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2007-09-01 00:00:00'), 'location': '四川省', 'job_name': '四川省省委党校院长'}</t>
+          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2007-09-01 00:00:00'), 'location': '四川省', 'type': '学校', 'rank': 0, 'job_name': '四川省省委党校院长'}</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '四川省', 'job_name': '四川省组织部部长'}</t>
+          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 8, 'job_name': '四川省组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-10-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '中央', 'job_name': '中央卫生部/厅/局国际合作司司长'}</t>
+          <t>{'begin_time': Timestamp('2003-10-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央卫生部/厅/局国际合作司司长'}</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'job_name': '中央中国轻工业联合会会长'}</t>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 9, 'job_name': '中央中国轻工业联合会会长'}</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '贵州省', 'type': '党委', 'rank': 9, 'job_name': '贵州省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '贵州省', 'type': '人大', 'rank': 9, 'job_name': '贵州省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '贵州省', 'type': '政府/国务院', 'rank': 9, 'job_name': '贵州省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广东省广州市', 'job_name': '广东省广州市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广东省广州市', 'type': '党委', 'rank': 0, 'job_name': '广东省广州市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '山东省', 'job_name': '山东省政府/国务院（综合）副省长、党组成员'}</t>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 8, 'job_name': '山东省政府/国务院（综合）副省长、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局秘书长'}</t>
+          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 0, 'job_name': '湖北省党委常委会/政治局秘书长'}</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省直属机关工作委员会书记'}</t>
+          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 0, 'job_name': '湖北省直属机关工作委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省铜仁市', 'job_name': '贵州省铜仁市政府/国务院（综合）专员'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省铜仁市', 'type': '政府/国务院', 'rank': 7, 'job_name': '贵州省铜仁市政府/国务院（综合）专员'}</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '云南省', 'job_name': '云南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '云南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '云南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '云南省', 'job_name': '云南省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '云南省', 'type': '政府/国务院', 'rank': 0, 'job_name': '云南省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'job_name': '广西壮族自治区南宁市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区南宁市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'job_name': '广西壮族自治区南宁市人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '广西壮族自治区南宁市', 'type': '人大', 'rank': 0, 'job_name': '广西壮族自治区南宁市人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2011-01-01 00:00:00'), 'location': '上海市', 'job_name': '上海市人大常委会副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2011-01-01 00:00:00'), 'location': '上海市', 'type': '人大', 'rank': 8, 'job_name': '上海市人大常委会副主任'}</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2011-01-01 00:00:00'), 'location': '上海市', 'job_name': '上海市总工会主席'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2011-01-01 00:00:00'), 'location': '上海市', 'type': '行业协会_人民团体', 'rank': 8, 'job_name': '上海市总工会主席'}</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 9, 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-02 00:00:00'), 'end_time': Timestamp('2010-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-05-02 00:00:00'), 'end_time': Timestamp('2010-01-01 00:00:00'), 'location': '西藏自治区', 'type': '人大', 'rank': 9, 'job_name': '西藏自治区人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 0, 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2010-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('2003-05-01 00:00:00'), 'end_time': Timestamp('2010-01-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '西藏自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 8, 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）秘书长（副部）'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 8, 'job_name': '西藏自治区政府/国务院（综合）秘书长（副部）'}</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 8, 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '云南省迪庆藏族自治州', 'job_name': '云南省迪庆藏族自治州政府/国务院（综合）州长'}</t>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '云南省迪庆藏族自治州', 'type': '政府/国务院', 'rank': 7, 'job_name': '云南省迪庆藏族自治州政府/国务院（综合）州长'}</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '中央', 'job_name': '中央经济委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央经济委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 8, 'job_name': '陕西省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政法委员会书记'}</t>
+          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 0, 'job_name': '陕西省政法委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央工业和信息化（信息产业）部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央工业和信息化（信息产业）部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央华侨委员会主任委员'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央华侨委员会主任委员'}</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国银行业监督管理委员会副主席、党委书记'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央中国银行业监督管理委员会副主席、党委书记'}</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'job_name': '中央党史研究室主任'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央党史研究室主任'}</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央环境与资源保护委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央环境与资源保护委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 0, 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 9, 'job_name': '甘肃省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '北京市西城区', 'job_name': '北京市西城区政府/国务院（综合）区长'}</t>
+          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '北京市西城区', 'type': '政府/国务院', 'rank': 7, 'job_name': '北京市西城区政府/国务院（综合）区长'}</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-02-01 00:00:00'), 'location': '中央', 'job_name': '中央财经领导小组办公室农村组巡视员'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 6, 'job_name': '中央财经领导小组办公室农村组巡视员'}</t>
         </is>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '山西省', 'job_name': '山西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '山西省', 'type': '党委', 'rank': 9, 'job_name': '山西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '云南省', 'job_name': '云南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '云南省', 'type': '党委', 'rank': 9, 'job_name': '云南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校在职研究生班政治学专业学员'}</t>
+          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中央党校在职研究生班政治学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 9, 'job_name': '青海省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2010-01-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2010-01-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 8, 'job_name': '青海省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 8, 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席、党组成员'}</t>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'job_name': '中央供销合作社理事会主任'}</t>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央供销合作社理事会主任'}</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '宁夏回族自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区政府/国务院（综合）副主席、党组成员'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '政府/国务院', 'rank': 8, 'job_name': '宁夏回族自治区政府/国务院（综合）副主席、党组成员'}</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省老干部局局长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 6, 'job_name': '甘肃省老干部局局长'}</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-02 00:00:00'), 'end_time': Timestamp('2007-03-02 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省组织部副部长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-02 00:00:00'), 'end_time': Timestamp('2007-03-02 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 7, 'job_name': '甘肃省组织部副部长'}</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-05-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区政法委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 0, 'job_name': '新疆维吾尔自治区政法委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '新疆维吾尔自治区乌鲁木齐市', 'job_name': '新疆维吾尔自治区乌鲁木齐市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '新疆维吾尔自治区乌鲁木齐市', 'type': '政府/国务院', 'rank': 7, 'job_name': '新疆维吾尔自治区乌鲁木齐市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '天津市', 'job_name': '天津市天津大学管理学院工商管理专业硕士生'}</t>
+          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '天津市', 'type': '学校', 'rank': 7, 'job_name': '天津市天津大学管理学院工商管理专业硕士生'}</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 8, 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省大连市', 'job_name': '辽宁省大连市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省大连市', 'type': '党委', 'rank': 8, 'job_name': '辽宁省大连市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央工业和信息化（信息产业）部/厅/局部长、党组书记'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央工业和信息化（信息产业）部/厅/局部长、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '中央', 'job_name': '中央信息化工作办公室/信息化领导小组主任'}</t>
+          <t>{'begin_time': Timestamp('2003-06-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央信息化工作办公室/信息化领导小组主任'}</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '河北省', 'job_name': '河北省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '河北省', 'type': '党委', 'rank': 9, 'job_name': '河北省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政法委员会机关党委书记'}</t>
+          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央政法委员会机关党委书记'}</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政法委员会副秘书长'}</t>
+          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央政法委员会副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央法律委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('2002-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央法律委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央农业与农村委员会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央农业与农村委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2008-06-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2008-06-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 10, 'job_name': '广东省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '北京市', 'job_name': '北京市党委常委会/政治局秘书长'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '北京市', 'type': '党委', 'rank': 0, 'job_name': '北京市党委常委会/政治局秘书长'}</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央农村工作领导小组副组长（正部级）'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央农村工作领导小组副组长（正部级）'}</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '中央', 'job_name': '中央精神文明建设指导委员会办公室主任'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央精神文明建设指导委员会办公室主任'}</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传部常务副部长（正部长级）'}</t>
+          <t>{'begin_time': Timestamp('2003-04-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传部常务副部长（正部长级）'}</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会委员长'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 11, 'job_name': '中央人大常委会委员长'}</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 10, 'job_name': '湖北省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 9, 'job_name': '江苏省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会常委'}</t>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央纪律检查委员会常委'}</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部常务副部长'}</t>
+          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央组织部常务副部长'}</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-01-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '福建省', 'job_name': '福建省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2002-01-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '福建省', 'type': '人大', 'rank': 9, 'job_name': '福建省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央农业与农村委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央农业与农村委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '江西省', 'job_name': '江西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '江西省', 'type': '党委', 'rank': 9, 'job_name': '江西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2003-08-01 00:00:00'), 'end_time': Timestamp('2006-07-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 9, 'job_name': '甘肃省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政法委员会书记'}</t>
+          <t>{'begin_time': Timestamp('1996-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'type': '党委', 'rank': 0, 'job_name': '北京市政法委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'job_name': '北京市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'type': '党委', 'rank': 8, 'job_name': '北京市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 9, 'job_name': '陕西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '重庆市', 'type': '党委', 'rank': 8, 'job_name': '重庆市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局党组成员'}</t>
+          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家审计署/地方审计厅/局党组成员'}</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局副审计长'}</t>
+          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家审计署/地方审计厅/局副审计长'}</t>
         </is>
       </c>
     </row>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2013-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国社会科学院党组书记'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2013-04-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中国社会科学院党组书记'}</t>
         </is>
       </c>
     </row>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2013-04-01 00:00:00'), 'location': '中央', 'job_name': '中央中国社会科学院院长'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2013-04-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中国社会科学院院长'}</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央交通部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央交通部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 9, 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 8, 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京科技大学经济管理学院博士研究生班管理科学与工程专业博士生'}</t>
+          <t>{'begin_time': Timestamp('2003-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 8, 'job_name': '北京市北京科技大学经济管理学院博士研究生班管理科学与工程专业博士生'}</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央对外联络工作委员会驻港联络办副主任'}</t>
+          <t>{'begin_time': Timestamp('2003-12-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央对外联络工作委员会驻港联络办副主任'}</t>
         </is>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '中央', 'job_name': '中央农业部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央农业部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-10-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '重庆市', 'type': '党委', 'rank': 9, 'job_name': '重庆市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '重庆市', 'type': '人大', 'rank': 9, 'job_name': '重庆市人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '中央', 'job_name': '中央政法委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央政法委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央公安部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央公安部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）国务委员'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 9, 'job_name': '四川省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部副部长'}</t>
+          <t>{'begin_time': Timestamp('2002-08-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部副部长'}</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局总书记'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局总书记'}</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2012-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2012-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央新闻出版署/版权局局长'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央新闻出版署/版权局局长'}</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传思想工作领导小组成员'}</t>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传思想工作领导小组成员'}</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2010-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局审计长（正部长级）、党组副书记'}</t>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2010-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家审计署/地方审计厅/局审计长（正部长级）、党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区新疆生产建设兵团司令'}</t>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '军队', 'rank': 8, 'job_name': '新疆维吾尔自治区新疆生产建设兵团司令'}</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'job_name': '中央中央党校省部级干部在职研究生班政治学专业学员'}</t>
+          <t>{'begin_time': Timestamp('2002-09-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 8, 'job_name': '中央中央党校省部级干部在职研究生班政治学专业学员'}</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('2003-01-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 8, 'job_name': '西藏自治区政府/国务院（综合）副主席'}</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'job_name': '中央环境与资源保护委员会副主任委员、主任委员'}</t>
+          <t>{'begin_time': Timestamp('2002-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央环境与资源保护委员会副主任委员、主任委员'}</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-03-01 00:00:00'), 'end_time': Timestamp('2010-07-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-03-01 00:00:00'), 'end_time': Timestamp('2010-07-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '党委', 'rank': 9, 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '河北省', 'job_name': '河北省纪律检查委员会书记'}</t>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '河北省', 'type': '党委', 'rank': 8, 'job_name': '河北省纪律检查委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2007-09-01 00:00:00'), 'location': '河北省', 'job_name': '河北省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2007-09-01 00:00:00'), 'location': '河北省', 'type': '党委', 'rank': 8, 'job_name': '河北省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2011-04-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部副部长'}</t>
+          <t>{'begin_time': Timestamp('2003-11-01 00:00:00'), 'end_time': Timestamp('2011-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部副部长'}</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2010-04-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2010-04-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 10, 'job_name': '新疆维吾尔自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2002-11-01 00:00:00'), 'end_time': Timestamp('2012-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2006-02-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学环境科学与工程系主任'}</t>
+          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2006-02-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 0, 'job_name': '北京市清华大学环境科学与工程系主任'}</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'job_name': '中央顾问委员会委员'}</t>
+          <t>{'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '中央', 'job_name': '中央宋庆龄基金会主席'}</t>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 0, 'job_name': '中央宋庆龄基金会主席'}</t>
         </is>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-07-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'job_name': '中央国家环境保护总局核安全司司长'}</t>
+          <t>{'begin_time': Timestamp('2002-07-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央国家环境保护总局核安全司司长'}</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2009-04-01 00:00:00'), 'location': '中央', 'job_name': '中央水利部/厅/局总工程师'}</t>
+          <t>{'begin_time': Timestamp('2003-03-01 00:00:00'), 'end_time': Timestamp('2009-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央水利部/厅/局总工程师'}</t>
         </is>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2011-04-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）副市长'}</t>
+          <t>{'begin_time': Timestamp('2003-02-01 00:00:00'), 'end_time': Timestamp('2011-04-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 0, 'job_name': '上海市政府/国务院（综合）副市长'}</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2005-05-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省纪律检查委员会常委'}</t>
+          <t>{'begin_time': Timestamp('2002-06-01 00:00:00'), 'end_time': Timestamp('2005-05-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省纪律检查委员会常委'}</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省贵阳市', 'job_name': '贵州省贵阳市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省贵阳市', 'type': '党委', 'rank': 0, 'job_name': '贵州省贵阳市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
